--- a/profiles_EMT2.xlsx
+++ b/profiles_EMT2.xlsx
@@ -5,19 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertaruiz/Desktop/BERTA/ESTUDIOS/UNIVERSIDAD/MÁSTER GD/TFM/PAPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertaruiz/Desktop/BERTA/ESTUDIOS/UNIVERSIDAD/MÁSTER GD/TFM/PAPER/START/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C47D380-9189-6444-A23F-1AD78BB24251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666AD15A-D8CA-DF47-A1A9-156B77474003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="14820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17260" yWindow="500" windowWidth="11540" windowHeight="15880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="casoPrueba" sheetId="1" r:id="rId1"/>
     <sheet name="EMT 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Matriz Compatibilidad" sheetId="3" r:id="rId3"/>
+    <sheet name="Probabilities" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Pérfil</t>
   </si>
@@ -200,13 +212,37 @@
   </si>
   <si>
     <t>ED</t>
+  </si>
+  <si>
+    <t>Code </t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -221,20 +257,85 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,13 +350,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,267 +798,339 @@
     <col min="1" max="2" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -933,4 +1138,3586 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31908052-EF06-B448-B464-7C8BBAF07212}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="24" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5">
+        <v>22</v>
+      </c>
+      <c r="X1" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB371DE-42EF-9942-8180-94873D26769F}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="24" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5">
+        <v>22</v>
+      </c>
+      <c r="X1" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/profiles_EMT2.xlsx
+++ b/profiles_EMT2.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertaruiz/Desktop/BERTA/ESTUDIOS/UNIVERSIDAD/MÁSTER GD/TFM/PAPER/START/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666AD15A-D8CA-DF47-A1A9-156B77474003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457FC26-1769-6A4C-968C-DA01CD17323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="500" windowWidth="11540" windowHeight="15880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12260" yWindow="500" windowWidth="16540" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="casoPrueba" sheetId="1" r:id="rId1"/>
-    <sheet name="EMT 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Matriz Compatibilidad" sheetId="3" r:id="rId3"/>
-    <sheet name="Probabilities" sheetId="4" r:id="rId4"/>
+    <sheet name="EMT 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Matriz Compatibilidad" sheetId="3" r:id="rId2"/>
+    <sheet name="Probabilities" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,34 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
-  <si>
-    <t>Pérfil</t>
-  </si>
-  <si>
-    <t>Referencia solución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfermero </t>
-  </si>
-  <si>
-    <t>Anestesista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cirujano </t>
-  </si>
-  <si>
-    <t>Pediatra</t>
-  </si>
-  <si>
-    <t>Ginecologo</t>
-  </si>
-  <si>
-    <t>Médico de familia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De cada uno de los profesionales entiendo que hay 10 personas por </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>Número</t>
   </si>
@@ -242,18 +214,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
       <charset val="1"/>
     </font>
     <font>
@@ -350,45 +316,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,94 +664,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -799,338 +677,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1140,11 +1018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31908052-EF06-B448-B464-7C8BBAF07212}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1154,78 +1032,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>18</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="8">
         <v>19</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="8">
         <v>20</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>21</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <v>22</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1299,7 +1177,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1373,7 +1251,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1403,7 +1281,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1447,7 +1325,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1477,7 +1355,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>0</v>
       </c>
       <c r="L5">
@@ -1521,7 +1399,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1551,7 +1429,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
       <c r="L6">
@@ -1595,7 +1473,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1625,7 +1503,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>0</v>
       </c>
       <c r="L7">
@@ -1669,7 +1547,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1699,7 +1577,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>0</v>
       </c>
       <c r="L8">
@@ -1743,7 +1621,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1773,7 +1651,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>0</v>
       </c>
       <c r="L9">
@@ -1803,7 +1681,7 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="13">
         <v>1</v>
       </c>
       <c r="V9">
@@ -1817,7 +1695,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1847,7 +1725,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>0</v>
       </c>
       <c r="L10">
@@ -1891,28 +1769,28 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
         <v>0</v>
       </c>
       <c r="I11">
@@ -1965,7 +1843,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2039,7 +1917,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2060,7 +1938,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>0</v>
       </c>
       <c r="I13">
@@ -2113,7 +1991,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2187,7 +2065,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2261,7 +2139,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2335,7 +2213,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2409,7 +2287,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2483,7 +2361,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2557,7 +2435,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2631,7 +2509,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2705,7 +2583,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2779,7 +2657,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2853,7 +2731,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2931,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB371DE-42EF-9942-8180-94873D26769F}">
   <dimension ref="A1:X24"/>
   <sheetViews>
@@ -2945,78 +2823,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>18</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="8">
         <v>19</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="8">
         <v>20</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>21</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <v>22</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3026,34 +2904,34 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3090,7 +2968,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3133,16 +3011,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -3164,11 +3042,11 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3194,7 +3072,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>0</v>
       </c>
       <c r="L4">
@@ -3238,11 +3116,11 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3260,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3268,7 +3146,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>0</v>
       </c>
       <c r="L5">
@@ -3312,11 +3190,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3334,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3342,7 +3220,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>0</v>
       </c>
       <c r="L6">
@@ -3386,11 +3264,11 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3408,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3416,7 +3294,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>0</v>
       </c>
       <c r="L7">
@@ -3460,11 +3338,11 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3490,7 +3368,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>0</v>
       </c>
       <c r="L8">
@@ -3534,11 +3412,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3556,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3564,7 +3442,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>0</v>
       </c>
       <c r="L9">
@@ -3594,7 +3472,7 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="11">
         <v>0</v>
       </c>
       <c r="V9">
@@ -3608,11 +3486,11 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3630,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3638,7 +3516,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>0</v>
       </c>
       <c r="L10">
@@ -3669,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -3682,28 +3560,28 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
         <v>0</v>
       </c>
       <c r="I11">
@@ -3756,7 +3634,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3830,11 +3708,11 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3851,8 +3729,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>64</v>
+      <c r="H13" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3904,7 +3782,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3974,18 +3852,18 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4024,13 +3902,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4042,24 +3920,24 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4095,16 +3973,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -4116,24 +3994,24 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4169,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -4190,24 +4068,24 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4243,16 +4121,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -4264,17 +4142,17 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4348,7 +4226,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4422,7 +4300,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4496,7 +4374,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4570,7 +4448,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4644,7 +4522,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24">
